--- a/Data_preparation/datasets/final_data/Nauticus_Robotics_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Nauticus_Robotics_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,51 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -697,22 +652,22 @@
         <v>44104</v>
       </c>
       <c r="D2">
-        <v>12.7733873356874</v>
+        <v>3175.199951171875</v>
       </c>
       <c r="E2">
-        <v>15.52035236358643</v>
+        <v>3187.8359375</v>
       </c>
       <c r="F2">
-        <v>17.30587870681586</v>
+        <v>3194.639892578125</v>
       </c>
       <c r="G2">
-        <v>12.68182262753309</v>
+        <v>3146.0400390625</v>
       </c>
       <c r="H2">
-        <v>4500000193</v>
+        <v>5703702</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -762,22 +717,22 @@
         <v>44196</v>
       </c>
       <c r="D3">
-        <v>32.50755730601569</v>
+        <v>3175.199951171875</v>
       </c>
       <c r="E3">
-        <v>31.25653076171875</v>
+        <v>3187.8359375</v>
       </c>
       <c r="F3">
-        <v>32.99459606093095</v>
+        <v>3194.639892578125</v>
       </c>
       <c r="G3">
-        <v>30.77904021483708</v>
+        <v>3146.0400390625</v>
       </c>
       <c r="H3">
-        <v>219937482</v>
+        <v>5703702</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1086639</v>
@@ -836,22 +791,22 @@
         <v>44286</v>
       </c>
       <c r="D4">
-        <v>2516.34996159507</v>
+        <v>3175.199951171875</v>
       </c>
       <c r="E4">
-        <v>2790.17041015625</v>
+        <v>3187.8359375</v>
       </c>
       <c r="F4">
-        <v>2807.159270103477</v>
+        <v>3194.639892578125</v>
       </c>
       <c r="G4">
-        <v>2503.838146397838</v>
+        <v>3146.0400390625</v>
       </c>
       <c r="H4">
-        <v>913159452</v>
+        <v>5703702</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-25000</v>
@@ -922,22 +877,22 @@
         <v>44377</v>
       </c>
       <c r="D5">
-        <v>40.06459571156605</v>
+        <v>3175.199951171875</v>
       </c>
       <c r="E5">
-        <v>40.04537963867188</v>
+        <v>3187.8359375</v>
       </c>
       <c r="F5">
-        <v>40.5353766696543</v>
+        <v>3194.639892578125</v>
       </c>
       <c r="G5">
-        <v>36.25990124070713</v>
+        <v>3146.0400390625</v>
       </c>
       <c r="H5">
-        <v>219937482</v>
+        <v>5703702</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>157856</v>
@@ -1011,22 +966,22 @@
         <v>44469</v>
       </c>
       <c r="D6">
-        <v>51.72000122070312</v>
+        <v>3217.320068359375</v>
       </c>
       <c r="E6">
-        <v>45.22999954223633</v>
+        <v>3223.800048828125</v>
       </c>
       <c r="F6">
-        <v>53.2400016784668</v>
+        <v>3541.320068359375</v>
       </c>
       <c r="G6">
-        <v>43.54000091552734</v>
+        <v>3210.840087890625</v>
       </c>
       <c r="H6">
-        <v>134598631</v>
+        <v>5703702</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>214115863</v>
@@ -1121,22 +1076,22 @@
         <v>44561</v>
       </c>
       <c r="D7">
-        <v>98.06110899770088</v>
+        <v>3223.800048828125</v>
       </c>
       <c r="E7">
-        <v>84.43734741210938</v>
+        <v>3220.56005859375</v>
       </c>
       <c r="F7">
-        <v>98.06110899770088</v>
+        <v>3252.9599609375</v>
       </c>
       <c r="G7">
-        <v>80.56356001156674</v>
+        <v>3207.60009765625</v>
       </c>
       <c r="H7">
-        <v>229140423</v>
+        <v>5703702</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>214762739</v>
@@ -1234,22 +1189,22 @@
         <v>44651</v>
       </c>
       <c r="D8">
-        <v>564.8420934999623</v>
+        <v>3256.199951171875</v>
       </c>
       <c r="E8">
-        <v>567.5840454101562</v>
+        <v>3256.199951171875</v>
       </c>
       <c r="F8">
-        <v>568.4980293802209</v>
+        <v>3262.679931640625</v>
       </c>
       <c r="G8">
-        <v>487.1534560444658</v>
+        <v>3249.719970703125</v>
       </c>
       <c r="H8">
-        <v>275900103</v>
+        <v>5703702</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>216703366</v>
@@ -1350,22 +1305,22 @@
         <v>44742</v>
       </c>
       <c r="D9">
-        <v>990.9535599144536</v>
+        <v>3265.919921875</v>
       </c>
       <c r="E9">
-        <v>932.830322265625</v>
+        <v>3298.320068359375</v>
       </c>
       <c r="F9">
-        <v>1065.275076908038</v>
+        <v>3434.39990234375</v>
       </c>
       <c r="G9">
-        <v>932.830322265625</v>
+        <v>3262.679931640625</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>5703702</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>217134617</v>
@@ -1466,22 +1421,22 @@
         <v>44834</v>
       </c>
       <c r="D10">
-        <v>3829.951036061672</v>
+        <v>1124.280029296875</v>
       </c>
       <c r="E10">
-        <v>3718.19677734375</v>
+        <v>1098.359985351562</v>
       </c>
       <c r="F10">
-        <v>4026.941593801738</v>
+        <v>2319.840087890625</v>
       </c>
       <c r="G10">
-        <v>3570.453859038701</v>
+        <v>1017.359985351562</v>
       </c>
       <c r="H10">
-        <v>933160187</v>
+        <v>5703702</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>143500792</v>
@@ -1582,22 +1537,22 @@
         <v>44926</v>
       </c>
       <c r="D11">
-        <v>17.67499923706055</v>
+        <v>1215</v>
       </c>
       <c r="E11">
-        <v>19.1200008392334</v>
+        <v>1101.599975585938</v>
       </c>
       <c r="F11">
-        <v>19.76000022888184</v>
+        <v>1260.359985351562</v>
       </c>
       <c r="G11">
-        <v>17.08499908447266</v>
+        <v>1053</v>
       </c>
       <c r="H11">
-        <v>795535712</v>
+        <v>5703702</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>176718231</v>
@@ -1698,22 +1653,22 @@
         <v>45016</v>
       </c>
       <c r="D12">
-        <v>4646.163088703966</v>
+        <v>972</v>
       </c>
       <c r="E12">
-        <v>4397.0390625</v>
+        <v>761.4000244140625</v>
       </c>
       <c r="F12">
-        <v>4647.12125803552</v>
+        <v>1007.640014648438</v>
       </c>
       <c r="G12">
-        <v>4224.568582820331</v>
+        <v>725.760009765625</v>
       </c>
       <c r="H12">
-        <v>933160187</v>
+        <v>5703702</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>140661927</v>
@@ -1814,22 +1769,22 @@
         <v>45107</v>
       </c>
       <c r="D13">
-        <v>299.8867087280755</v>
+        <v>657.719970703125</v>
       </c>
       <c r="E13">
-        <v>279.6763610839844</v>
+        <v>648</v>
       </c>
       <c r="F13">
-        <v>311.3327623979251</v>
+        <v>722.52001953125</v>
       </c>
       <c r="G13">
-        <v>274.7053735580706</v>
+        <v>622.0800170898438</v>
       </c>
       <c r="H13">
-        <v>193969420</v>
+        <v>5703702</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>98341138</v>
@@ -1930,22 +1885,22 @@
         <v>45199</v>
       </c>
       <c r="D14">
-        <v>1366.269412157012</v>
+        <v>576.719970703125</v>
       </c>
       <c r="E14">
-        <v>1400.426147460938</v>
+        <v>589.6799926757812</v>
       </c>
       <c r="F14">
-        <v>1722.475366040805</v>
+        <v>638.280029296875</v>
       </c>
       <c r="G14">
-        <v>1356.510344927319</v>
+        <v>557.280029296875</v>
       </c>
       <c r="H14">
-        <v>134011000</v>
+        <v>5703702</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>88182873</v>
@@ -2046,22 +2001,22 @@
         <v>45291</v>
       </c>
       <c r="D15">
-        <v>124.5980016318655</v>
+        <v>223.5599975585937</v>
       </c>
       <c r="E15">
-        <v>132.1493988037109</v>
+        <v>141.2640075683594</v>
       </c>
       <c r="F15">
-        <v>136.1187273141222</v>
+        <v>227.1239929199219</v>
       </c>
       <c r="G15">
-        <v>122.5649354352075</v>
+        <v>90.72000122070312</v>
       </c>
       <c r="H15">
-        <v>229140423</v>
+        <v>5703702</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>33914379</v>
@@ -2162,22 +2117,22 @@
         <v>45382</v>
       </c>
       <c r="D16">
-        <v>4156.728619089413</v>
+        <v>105.3000030517578</v>
       </c>
       <c r="E16">
-        <v>4553.76318359375</v>
+        <v>67.39199829101562</v>
       </c>
       <c r="F16">
-        <v>5096.40944657156</v>
+        <v>105.3000030517578</v>
       </c>
       <c r="G16">
-        <v>3750.957352676668</v>
+        <v>59.29199981689453</v>
       </c>
       <c r="H16">
-        <v>175134528</v>
+        <v>5703702</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>15986492</v>
@@ -2278,22 +2233,22 @@
         <v>45473</v>
       </c>
       <c r="D17">
-        <v>2890.935410112718</v>
+        <v>45.0359992980957</v>
       </c>
       <c r="E17">
-        <v>2691.009033203125</v>
+        <v>28.70999908447266</v>
       </c>
       <c r="F17">
-        <v>3014.889763796666</v>
+        <v>55.08000183105469</v>
       </c>
       <c r="G17">
-        <v>2519.072349060875</v>
+        <v>23.85000038146973</v>
       </c>
       <c r="H17">
-        <v>104878138</v>
+        <v>5703702</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>8496979</v>
@@ -2397,22 +2352,22 @@
         <v>45565</v>
       </c>
       <c r="D18">
-        <v>31.23959479848472</v>
+        <v>12.86999988555908</v>
       </c>
       <c r="E18">
-        <v>28.76222801208496</v>
+        <v>12.32999992370606</v>
       </c>
       <c r="F18">
-        <v>31.50219696309808</v>
+        <v>13.5</v>
       </c>
       <c r="G18">
-        <v>28.63340577082776</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="H18">
-        <v>1299391231</v>
+        <v>5703702</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>6555984</v>
@@ -2513,22 +2468,22 @@
         <v>45657</v>
       </c>
       <c r="D19">
-        <v>2476.994723535176</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="E19">
-        <v>2384.00341796875</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="F19">
-        <v>2758.415779854624</v>
+        <v>54.36000061035156</v>
       </c>
       <c r="G19">
-        <v>2325.761495008725</v>
+        <v>13.5</v>
       </c>
       <c r="H19">
-        <v>175134528</v>
+        <v>5703702</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>9931591</v>
@@ -2629,22 +2584,22 @@
         <v>45747</v>
       </c>
       <c r="D20">
-        <v>3590.70430246099</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="E20">
-        <v>3714.694091796875</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="F20">
-        <v>3714.694091796875</v>
+        <v>12.51000022888184</v>
       </c>
       <c r="G20">
-        <v>3048.748932944461</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="H20">
-        <v>913159452</v>
+        <v>5703702</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>5887832</v>
@@ -2745,22 +2700,22 @@
         <v>45838</v>
       </c>
       <c r="D21">
-        <v>2937</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="E21">
-        <v>3025</v>
+        <v>8.442000389099121</v>
       </c>
       <c r="F21">
-        <v>3125</v>
+        <v>10.89000034332275</v>
       </c>
       <c r="G21">
-        <v>2890</v>
+        <v>7.920000076293945</v>
       </c>
       <c r="H21">
-        <v>52985470</v>
+        <v>5703702</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>33756130</v>
